--- a/MEDIA/202011030021應付帳款明細.xlsx
+++ b/MEDIA/202011030021應付帳款明細.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,27 +464,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20001419</t>
+          <t>20001581</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20004490</t>
+          <t>20004541</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20200901</t>
+          <t>20200902</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>100351</t>
+          <t>100200</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">祥亮行銷事業股份有限公司                            </t>
+          <t xml:space="preserve">味全食品工業股份有限公司                            </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -499,32 +499,32 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">301011-3                 </t>
+          <t xml:space="preserve">201003                   </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">脆薯(包)/2.27kg                  </t>
+          <t xml:space="preserve">鮪魚沙拉(包)/1KG                   </t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">脆薯(包)/2.27kg                  </t>
+          <t xml:space="preserve">鮪魚沙拉(包)/1KG                   </t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t xml:space="preserve">6包/箱                          </t>
+          <t xml:space="preserve">廠商贊助尾牙                        </t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>126.9841</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -534,44 +534,44 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>190476</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>9524</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20001684</t>
+          <t>20001581</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20004612</t>
+          <t>20004541</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20200908</t>
+          <t>20200902</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>100351</t>
+          <t>100200</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">祥亮行銷事業股份有限公司                            </t>
+          <t xml:space="preserve">味全食品工業股份有限公司                            </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -586,32 +586,32 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">302228                   </t>
+          <t xml:space="preserve">201012                   </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">冷凍菠菜(包)/1kg                   </t>
+          <t xml:space="preserve">雞蛋火腿沙拉/包(500g)                </t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">冷凍菠菜(包)/1kg                   </t>
+          <t xml:space="preserve">雞蛋火腿沙拉/包(500g)                </t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t xml:space="preserve">原9/22請廠商提前 10包/箱              </t>
+          <t xml:space="preserve">廠商贊助尾牙                        </t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>43.8095</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -621,44 +621,44 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2629</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2760</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20001684</t>
+          <t>20001618</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>20004612</t>
+          <t>20004602</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20200908</t>
+          <t>20200907</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>100351</t>
+          <t>100200</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">祥亮行銷事業股份有限公司                            </t>
+          <t xml:space="preserve">味全食品工業股份有限公司                            </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -673,32 +673,32 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">302607-1                 </t>
+          <t xml:space="preserve">201012                   </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">冷凍紅椒丁(包)/1kg                  </t>
+          <t xml:space="preserve">雞蛋火腿沙拉/包(500g)                </t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">冷凍紅椒丁(包)/1kg                  </t>
+          <t xml:space="preserve">雞蛋火腿沙拉/包(500g)-搭贈             </t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t xml:space="preserve">原9/15請廠商提前 10包/箱              </t>
+          <t xml:space="preserve">7月共訂購7680包(20+1)              </t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>384</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>52.381</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -708,44 +708,44 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2619</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20001419</t>
+          <t>20001581</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20004813</t>
+          <t>20004859</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20200917</t>
+          <t>20200918</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>100351</t>
+          <t>100200</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">祥亮行銷事業股份有限公司                            </t>
+          <t xml:space="preserve">味全食品工業股份有限公司                            </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -760,32 +760,32 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">301011-3                 </t>
+          <t xml:space="preserve">201003                   </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">脆薯(包)/2.27kg                  </t>
+          <t xml:space="preserve">鮪魚沙拉(包)/1KG                   </t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">脆薯(包)/2.27kg                  </t>
+          <t xml:space="preserve">鮪魚沙拉(包)/1KG                   </t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t xml:space="preserve">原9/15廠商延後                     </t>
+          <t xml:space="preserve">廠商贊助尾牙                        </t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>126.9841</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -795,44 +795,44 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>190476</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>9524</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20001776</t>
+          <t>20001581</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20004814</t>
+          <t>20004859</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20200917</t>
+          <t>20200918</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>100351</t>
+          <t>100200</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">祥亮行銷事業股份有限公司                            </t>
+          <t xml:space="preserve">味全食品工業股份有限公司                            </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -847,32 +847,32 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">302607-1                 </t>
+          <t xml:space="preserve">201012                   </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">冷凍紅椒丁(包)/1kg                  </t>
+          <t xml:space="preserve">雞蛋火腿沙拉/包(500g)                </t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve">冷凍紅椒丁(包)/1kg                  </t>
+          <t xml:space="preserve">雞蛋火腿沙拉/包(500g)                </t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t xml:space="preserve">原9/15(9/9)                    </t>
+          <t xml:space="preserve">廠商贊助尾牙                        </t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>52.381</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -882,44 +882,44 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2619</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20001776</t>
+          <t>20001618</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>20004814</t>
+          <t>20005037</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20200917</t>
+          <t>20200928</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>100351</t>
+          <t>100200</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">祥亮行銷事業股份有限公司                            </t>
+          <t xml:space="preserve">味全食品工業股份有限公司                            </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -934,32 +934,32 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">201121                   </t>
+          <t xml:space="preserve">201012                   </t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">迷你鬆餅(包)/500g                  </t>
+          <t xml:space="preserve">雞蛋火腿沙拉/包(500g)                </t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve">迷你鬆餅(包)/500g                  </t>
+          <t xml:space="preserve">雞蛋火腿沙拉/包(500g)-贈送             </t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t xml:space="preserve">9/14追加                        </t>
+          <t xml:space="preserve">5箱                            </t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>60</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>106.6667</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -969,44 +969,44 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>9600</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>10080</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20001419</t>
+          <t>20001581</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20004907</t>
+          <t>20005117</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20200922</t>
+          <t>20200930</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>100351</t>
+          <t>100200</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">祥亮行銷事業股份有限公司                            </t>
+          <t xml:space="preserve">味全食品工業股份有限公司                            </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1021,32 +1021,32 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">301011-3                 </t>
+          <t xml:space="preserve">201003                   </t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">脆薯(包)/2.27kg                  </t>
+          <t xml:space="preserve">鮪魚沙拉(包)/1KG                   </t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">脆薯(包)/2.27kg                  </t>
+          <t xml:space="preserve">鮪魚沙拉(包)/1KG                   </t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t xml:space="preserve">6包/箱                          </t>
+          <t xml:space="preserve">廠商贊助尾牙                        </t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>126.9841</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1056,44 +1056,44 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>190476</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>9524</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20001776</t>
+          <t>20001581</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>20004908</t>
+          <t>20005117</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20200922</t>
+          <t>20200930</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>100351</t>
+          <t>100200</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">祥亮行銷事業股份有限公司                            </t>
+          <t xml:space="preserve">味全食品工業股份有限公司                            </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1108,32 +1108,32 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">302228                   </t>
+          <t xml:space="preserve">201012                   </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">冷凍菠菜(包)/1kg                   </t>
+          <t xml:space="preserve">雞蛋火腿沙拉/包(500g)                </t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve">冷凍菠菜(包)/1kg                   </t>
+          <t xml:space="preserve">雞蛋火腿沙拉/包(500g)                </t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t xml:space="preserve">10包/箱                         </t>
+          <t xml:space="preserve">廠商贊助尾牙                        </t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>43.8095</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1143,44 +1143,44 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2629</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2760</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20001419</t>
+          <t>20001854</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>20005050</t>
+          <t>20005153</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20200929</t>
+          <t>20201005</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>100351</t>
+          <t>100200</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">祥亮行銷事業股份有限公司                            </t>
+          <t xml:space="preserve">味全食品工業股份有限公司                            </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1195,17 +1195,17 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">301011-3                 </t>
+          <t xml:space="preserve">201003                   </t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">脆薯(包)/2.27kg                  </t>
+          <t xml:space="preserve">鮪魚沙拉(包)/1KG                   </t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">脆薯(包)/2.27kg                  </t>
+          <t xml:space="preserve">鮪魚沙拉(包)/1KG                   </t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1215,59 +1215,59 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>840</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>126.9841</t>
+          <t>138.0952</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>116000</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>190476</t>
+          <t>116000</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>9524</t>
+          <t>5800</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>121800</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20001684</t>
+          <t>20001854</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>20005084</t>
+          <t>20005153</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>20200930</t>
+          <t>20201005</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>100351</t>
+          <t>100200</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">祥亮行銷事業股份有限公司                            </t>
+          <t xml:space="preserve">味全食品工業股份有限公司                            </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1282,32 +1282,32 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">302607-1                 </t>
+          <t xml:space="preserve">201012                   </t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve">冷凍紅椒丁(包)/1kg                  </t>
+          <t xml:space="preserve">雞蛋火腿沙拉/包(500g)                </t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve">冷凍紅椒丁(包)/1kg                  </t>
+          <t xml:space="preserve">雞蛋火腿沙拉/包(500g)-搭贈             </t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t xml:space="preserve">10包/箱                         </t>
+          <t xml:space="preserve">9月共訂購4800包                    </t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>240</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>52.381</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1317,44 +1317,44 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2619</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20001896</t>
+          <t>20001854</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>20005170</t>
+          <t>20005153</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>20201006</t>
+          <t>20201005</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>100351</t>
+          <t>100200</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">祥亮行銷事業股份有限公司                            </t>
+          <t xml:space="preserve">味全食品工業股份有限公司                            </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1369,79 +1369,79 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t xml:space="preserve">301011-3                 </t>
+          <t xml:space="preserve">201012                   </t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve">脆薯(包)/2.27kg                  </t>
+          <t xml:space="preserve">雞蛋火腿沙拉/包(500g)                </t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">脆薯(包)/2.27kg                  </t>
+          <t xml:space="preserve">雞蛋火腿沙拉/包(500g)                </t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t xml:space="preserve">6包/箱                          </t>
+          <t xml:space="preserve">12包/箱                         </t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>1080</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>126.9841</t>
+          <t>66.6667</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>190476</t>
+          <t>72000</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>190476</t>
+          <t>72000</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>9524</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>75600</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20001896</t>
+          <t>20001854</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>20005170</t>
+          <t>20005296</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>20201006</t>
+          <t>20201012</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>100351</t>
+          <t>100200</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">祥亮行銷事業股份有限公司                            </t>
+          <t xml:space="preserve">味全食品工業股份有限公司                            </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1456,79 +1456,79 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve">302228                   </t>
+          <t xml:space="preserve">201003                   </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">冷凍菠菜(包)/1kg                   </t>
+          <t xml:space="preserve">鮪魚沙拉(包)/1KG                   </t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t xml:space="preserve">冷凍菠菜(包)/1kg                   </t>
+          <t xml:space="preserve">鮪魚沙拉(包)/1KG                   </t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t xml:space="preserve">10包/箱                         </t>
+          <t xml:space="preserve">6包/箱                          </t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>840</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>43.8095</t>
+          <t>138.0952</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>3505</t>
+          <t>116000</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>3505</t>
+          <t>116000</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>5800</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>3680</t>
+          <t>121800</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20001896</t>
+          <t>20001854</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20005170</t>
+          <t>20005296</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>20201006</t>
+          <t>20201012</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>100351</t>
+          <t>100200</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">祥亮行銷事業股份有限公司                            </t>
+          <t xml:space="preserve">味全食品工業股份有限公司                            </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1543,79 +1543,79 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t xml:space="preserve">302607-1                 </t>
+          <t xml:space="preserve">201012                   </t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve">冷凍紅椒丁(包)/1kg                  </t>
+          <t xml:space="preserve">雞蛋火腿沙拉/包(500g)                </t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t xml:space="preserve">冷凍紅椒丁(包)/1kg                  </t>
+          <t xml:space="preserve">雞蛋火腿沙拉/包(500g)                </t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t xml:space="preserve">10包/箱                         </t>
+          <t xml:space="preserve">12包/箱                         </t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>1440</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>52.381</t>
+          <t>66.6667</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>5238</t>
+          <t>96000</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>5238</t>
+          <t>96000</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>4800</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>100800</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20001896</t>
+          <t>20001581</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>20005308</t>
+          <t>20005369</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201014</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>100351</t>
+          <t>100200</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">祥亮行銷事業股份有限公司                            </t>
+          <t xml:space="preserve">味全食品工業股份有限公司                            </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1630,79 +1630,79 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">301011-3                 </t>
+          <t xml:space="preserve">201003                   </t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve">脆薯(包)/2.27kg                  </t>
+          <t xml:space="preserve">鮪魚沙拉(包)/1KG                   </t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t xml:space="preserve">脆薯(包)/2.27kg                  </t>
+          <t xml:space="preserve">鮪魚沙拉(包)/1KG                   </t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t xml:space="preserve">6包/箱                          </t>
+          <t xml:space="preserve">廠商贊助尾牙                        </t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>126.9841</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>190476</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>190476</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>9524</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20001896</t>
+          <t>20001581</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>20005308</t>
+          <t>20005369</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201014</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>100351</t>
+          <t>100200</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">祥亮行銷事業股份有限公司                            </t>
+          <t xml:space="preserve">味全食品工業股份有限公司                            </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1717,79 +1717,79 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">201121                   </t>
+          <t xml:space="preserve">201012                   </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve">迷你鬆餅(包)/500g                  </t>
+          <t xml:space="preserve">雞蛋火腿沙拉/包(500g)                </t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve">迷你鬆餅(包)/500g                  </t>
+          <t xml:space="preserve">雞蛋火腿沙拉/包(500g)                </t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t xml:space="preserve">6包/箱、共10箱                     </t>
+          <t xml:space="preserve">廠商贊助尾牙                        </t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>11</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>106.6667</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>6400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>6400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>6720</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20001896</t>
+          <t>20001854</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>20005444</t>
+          <t>20005431</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>20201020</t>
+          <t>20201019</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>100351</t>
+          <t>100200</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">祥亮行銷事業股份有限公司                            </t>
+          <t xml:space="preserve">味全食品工業股份有限公司                            </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1804,17 +1804,17 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve">301011-3                 </t>
+          <t xml:space="preserve">201003                   </t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve">脆薯(包)/2.27kg                  </t>
+          <t xml:space="preserve">鮪魚沙拉(包)/1KG                   </t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t xml:space="preserve">脆薯(包)/2.27kg                  </t>
+          <t xml:space="preserve">鮪魚沙拉(包)/1KG                   </t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1824,59 +1824,59 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>840</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>126.9841</t>
+          <t>138.0952</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>190476</t>
+          <t>116000</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>190476</t>
+          <t>116000</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>9524</t>
+          <t>5800</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>121800</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20001896</t>
+          <t>20001854</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>20005592</t>
+          <t>20005431</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>20201027</t>
+          <t>20201019</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>100351</t>
+          <t>100200</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">祥亮行銷事業股份有限公司                            </t>
+          <t xml:space="preserve">味全食品工業股份有限公司                            </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1891,79 +1891,79 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">301011-3                 </t>
+          <t xml:space="preserve">201012                   </t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t xml:space="preserve">脆薯(包)/2.27kg                  </t>
+          <t xml:space="preserve">雞蛋火腿沙拉/包(500g)                </t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t xml:space="preserve">脆薯(包)/2.27kg                  </t>
+          <t xml:space="preserve">雞蛋火腿沙拉/包(500g)                </t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t xml:space="preserve">原1500(10/13)                  </t>
+          <t xml:space="preserve">12包/箱                         </t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>1440</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>126.9841</t>
+          <t>66.6667</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>266667</t>
+          <t>96000</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>266667</t>
+          <t>96000</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>13333</t>
+          <t>4800</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>280000</t>
+          <t>100800</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20001896</t>
+          <t>20001854</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>20005592</t>
+          <t>20005579</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>20201027</t>
+          <t>20201026</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>100351</t>
+          <t>100200</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">祥亮行銷事業股份有限公司                            </t>
+          <t xml:space="preserve">味全食品工業股份有限公司                            </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1978,122 +1978,470 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t xml:space="preserve">201121                   </t>
+          <t xml:space="preserve">201003                   </t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">迷你鬆餅(包)/500g                  </t>
+          <t xml:space="preserve">鮪魚沙拉(包)/1KG                   </t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t xml:space="preserve">迷你鬆餅(包)/500g                  </t>
+          <t xml:space="preserve">鮪魚沙拉(包)/1KG                   </t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t xml:space="preserve">6包/箱、共10箱                     </t>
+          <t xml:space="preserve">6包/箱                          </t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
+          <t>960</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>138.0952</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>132571</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>132571</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>6629</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>139200</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20001854</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>20005579</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>100200</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">味全食品工業股份有限公司                            </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">201012                   </t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">雞蛋火腿沙拉/包(500g)                </t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">雞蛋火腿沙拉/包(500g)                </t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12包/箱                         </t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>66.6667</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>88000</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>88000</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>92400</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20001854</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>20005579</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>20201026</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>100200</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">味全食品工業股份有限公司                            </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">201012                   </t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">雞蛋火腿沙拉/包(500g)                </t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">雞蛋火腿沙拉/包(500g)-贈送             </t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12包/箱                         </t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
           <t>60</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>106.6667</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>6400</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>6400</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>6720</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" s="1" t="inlineStr">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>20001581</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>20005665</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>100200</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">味全食品工業股份有限公司                            </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">201003                   </t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">鮪魚沙拉(包)/1KG                   </t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">鮪魚沙拉(包)/1KG                   </t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">廠商贊助尾牙                        </t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>20001581</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>20005665</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>20201028</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>100200</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">味全食品工業股份有限公司                            </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>IN10</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">201012                   </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">雞蛋火腿沙拉/包(500g)                </t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">雞蛋火腿沙拉/包(500g)                </t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">廠商贊助尾牙                        </t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" s="1" t="inlineStr">
         <is>
           <t>小計</t>
         </is>
       </c>
-      <c r="O21" s="1" t="inlineStr">
-        <is>
-          <t>1,644,257</t>
-        </is>
-      </c>
-      <c r="P21" s="1" t="inlineStr">
-        <is>
-          <t>82,213</t>
-        </is>
-      </c>
-      <c r="Q21" s="1" t="inlineStr">
-        <is>
-          <t>1,726,470</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" s="2" t="inlineStr">
+      <c r="O25" s="1" t="inlineStr">
+        <is>
+          <t>832,571</t>
+        </is>
+      </c>
+      <c r="P25" s="1" t="inlineStr">
+        <is>
+          <t>41,629</t>
+        </is>
+      </c>
+      <c r="Q25" s="1" t="inlineStr">
+        <is>
+          <t>874,200</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" s="2" t="inlineStr">
         <is>
           <t>總計</t>
         </is>
       </c>
-      <c r="O22" s="2" t="inlineStr">
-        <is>
-          <t>1,644,257</t>
-        </is>
-      </c>
-      <c r="P22" s="2" t="inlineStr">
-        <is>
-          <t>82,213</t>
-        </is>
-      </c>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>1,726,470</t>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>832,571</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>41,629</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>874,200</t>
         </is>
       </c>
     </row>
